--- a/project calendar.xlsx
+++ b/project calendar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C127400-F1FC-45E8-8CA4-C469EB152DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EF3C1F-4474-4D8F-AD5A-393980910C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1650" windowWidth="27015" windowHeight="13500" xr2:uid="{38B1FC24-FECB-4369-891B-9005EFD9007C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38B1FC24-FECB-4369-891B-9005EFD9007C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,34 +64,29 @@
     <t>10주차</t>
   </si>
   <si>
-    <t>PyQt 공부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문/계산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중간 리뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매출집계</t>
+    <t>PyQt 공부</t>
+  </si>
+  <si>
+    <t>주문/계산</t>
+  </si>
+  <si>
+    <t>자료구조 개선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11주차</t>
+    <t>주문내역 저장/조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간별 매출집계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>문서화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +110,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -176,35 +185,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,96 +533,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5DA510-D8A6-4EEA-9F12-4D1C4A33D7DB}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
